--- a/doc/PLC设备接入分析/设备接入分析.xlsx
+++ b/doc/PLC设备接入分析/设备接入分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="集中控制器-调灯" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="集中器分组属性" sheetId="9" r:id="rId9"/>
     <sheet name="物理架构及流程" sheetId="4" r:id="rId10"/>
     <sheet name="报文分析" sheetId="5" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId12"/>
+    <sheet name="集中器配置流程" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="625">
   <si>
     <t>ID:</t>
   </si>
@@ -3235,12 +3235,1519 @@
     <t>来源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>清除节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除flash节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询组网(当全部节点都组网成功)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止组网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置节点（等待节点数*30秒）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点数和实际一致则整个流程成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟指令自动化处理过程步骤：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制节点的前置步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备属性及参数|设备间关系|设备和通信通道的关系|及服务提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备和通信通道的关系及初始化开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器属性及参数数据提供，初始化，API调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具属性及参数数据提供、初始化，API调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令返回的组网节点数和要求一致即成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度信息无法得到，通常做法是通过地图得到的，这里怎么得到输入？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8EH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8CH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>2 Bs</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <r>
+      <t>取小数后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (-90.00 - +90.00) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整型</t>
+    </r>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <r>
+      <t>-11 - +12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整型</t>
+    </r>
+  </si>
+  <si>
+    <t>短信中心号</t>
+  </si>
+  <si>
+    <t>14 Bs</t>
+  </si>
+  <si>
+    <r>
+      <t>管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:13812345678 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串型</t>
+    </r>
+  </si>
+  <si>
+    <t>11 Bs</t>
+  </si>
+  <si>
+    <r>
+      <t>管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>操作员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>操作员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>操作员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>短信操作回复</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+  </si>
+  <si>
+    <t>光控时段</t>
+  </si>
+  <si>
+    <r>
+      <t>前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：结束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>4 Bs</t>
+  </si>
+  <si>
+    <t>参考1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器配置：向集中器写入经纬度信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始组网（等待节点数*20秒）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个节点 如果有部分没有组到，是需要通知组网停止的，否则一直在循环组网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置集中器时间：手动同步集中器时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加背景色的不需要传递或留空即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示偏移量</t>
+    </r>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <r>
+      <t>月份，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示</t>
+    </r>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <r>
+      <t>日期，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示</t>
+    </r>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <r>
+      <t>星期，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示</t>
+    </r>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
+    <r>
+      <t>时钟，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示</t>
+    </r>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <r>
+      <t>分钟，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示</t>
+    </r>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <r>
+      <t>秒钟，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节表示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  C = 1:  ID = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除节点的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  C = 2:  6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的最低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示组号。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如，删除第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组节点，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID = 00 00 00 00 00 02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  C = 3:  ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ID = 00 00 00 00 00 00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>6B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT:    ID:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该选择这个所有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除所有存储节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>不需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PDT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始组网   63H   组网数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>flash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  69H</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询组网   9AH 不需要PDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回节点个数是否和实际个数一致？是则停止组网并继续，不是则停止组网退出配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从0开始，代表 星期日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>取小数后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(-180.00 - +180.00) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">*100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值同上，+表示北  -表南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值  -11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如经度是90.6897，那么就取90.68，然后再乘以100   ，-表示西  +表示东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值：+9068</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值：-xxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值：  +10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止组网  64H   不需要PDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储节点  66H   不需要PDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>节点的组号：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1~255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；注意：组号不能为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>设备类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见附录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A)</t>
+    </r>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <r>
+      <t>节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>8 Bs</t>
+  </si>
+  <si>
+    <t>下发节点  96H   PDT如下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（等待节点数*30秒）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧总数</t>
+  </si>
+  <si>
+    <t>帧数</t>
+  </si>
+  <si>
+    <t>当前帧是第几个帧</t>
+  </si>
+  <si>
+    <t>配置节点  98H  不需要pdt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几个包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧就是一个协议报文的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if  f1没有应答 完毕 ，则丢弃 新指令 ，上报设备忙即可。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息缓存：和设备交互，相同设备相同指令码的交互，需要排队阻塞，等待上一个指令的应答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总帧数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应答1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应答2完毕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add(node)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add(node)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询节点  97H 入参不需要pdt  返回pdt如下：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeNum * configWaitTimes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参：集中器ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参：集中器ID，nodeNum组网个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参：集中器ID，节点ID-组号-设备类型 。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时钟  8CH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 00 00 00 00 00 01 68 00 08 8c 0f 02 1c 06 11 23 05 d1 16</t>
+  </si>
+  <si>
+    <t>ack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>req</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，启动定时任务，获取内存中key=100消息 &amp;&amp;req=0的task ,取到，new新线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功，ack=1,等待响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，设置req=1,if step=1则处理步骤1，发送失败。记录MSG,退出线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备端响应成功，修改req=0,ack=0,step=2，重新上面的第2步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;jsonobj&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加锁，通过业务手段：前端需要控制响应后才能重新发送相同指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,通用接收通道，接收消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，下发请求，同时写入上面的消息缓存，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=initconfig+id+cmdCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmdCode</t>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送完毕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功1或发送失败2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot_init_Configkey,field=initconfig+100+cmdCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败保留信息，退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如设备端处理成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如设备端处理失败或不能满足流程继续往下走的条件，则设置ack=3,退出流程，不删除此记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，监听接收通道：如果有响应100的消息且此PLC未配置完毕且下面的缓存存在：且req=1 &amp;&amp;ack=1,处理响应，设备端失败则，设置ack=2,记录MSG，退出线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发过程简要设计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口2：提供一个API,入参是PLC_SN，手动启动配置过程，把缓存的请求删除，手动启动配置过程，，，，未来可以提供此能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为保证处理步骤是同步的引入以下设计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel线程：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时缓存：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口1：第一次登陆并成功后，启动配置过程，向设备发送第一步骤请求，并缓存请求到下面缓存中等待响应结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点设备码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:13812345678 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: +8613010888500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符串型</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除所有节点  99H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3463,8 +4970,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3531,8 +5089,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3744,12 +5308,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -3925,6 +5515,82 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3944,6 +5610,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8188,7 +9863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -8200,63 +9875,63 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12" ht="15" thickBot="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="73" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="103" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="18" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1">
       <c r="B5" s="19" t="s">
@@ -8467,16 +10142,1025 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B6:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P37" sqref="O37:P37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" style="74"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="12" max="14" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:22" ht="23.25">
+      <c r="C6" s="73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="20.25">
+      <c r="L11" s="100" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18">
+      <c r="L12" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="M12" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N12" s="76"/>
+      <c r="U12" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="V12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" s="76" customFormat="1" ht="18">
+      <c r="B13" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="M13" t="s">
+        <v>592</v>
+      </c>
+      <c r="N13"/>
+      <c r="V13" s="102" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="C14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="C15" t="s">
+        <v>472</v>
+      </c>
+      <c r="O15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="C16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="M16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="O17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="M20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="L21" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="M21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="77" customFormat="1" ht="18">
+      <c r="B22" s="75" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" s="99" t="s">
+        <v>581</v>
+      </c>
+      <c r="N22" s="99" t="s">
+        <v>604</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="P22" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q22" s="99" t="s">
+        <v>588</v>
+      </c>
+      <c r="R22" s="99" t="s">
+        <v>589</v>
+      </c>
+      <c r="S22" s="77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="74">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>501</v>
+      </c>
+      <c r="F23" t="s">
+        <v>474</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>605</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="74">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>507</v>
+      </c>
+      <c r="D24" t="s">
+        <v>476</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>607</v>
+      </c>
+      <c r="W24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="74">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E25" t="s">
+        <v>528</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="74">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" t="s">
+        <v>530</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="74">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="74">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="74">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>457</v>
+      </c>
+      <c r="E29" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" s="74">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="74">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="74">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="74">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>505</v>
+      </c>
+      <c r="E33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="15" thickBot="1">
+      <c r="B37" s="74">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="15" thickBot="1">
+      <c r="C38" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="27.75" thickBot="1">
+      <c r="C39" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F39" t="s">
+        <v>541</v>
+      </c>
+      <c r="P39" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="27.75" thickBot="1">
+      <c r="C40" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F40" t="s">
+        <v>539</v>
+      </c>
+      <c r="P40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="15" thickBot="1">
+      <c r="C41" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>540</v>
+      </c>
+      <c r="P41" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="27" thickBot="1">
+      <c r="C42" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>623</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>487</v>
+      </c>
+      <c r="F42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="27" thickBot="1">
+      <c r="C43" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="D43" s="85" t="s">
+        <v>622</v>
+      </c>
+      <c r="E43" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="27" thickBot="1">
+      <c r="C44" s="84" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="27" thickBot="1">
+      <c r="C45" s="84" t="s">
+        <v>492</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>489</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="27" thickBot="1">
+      <c r="C46" s="84" t="s">
+        <v>493</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>489</v>
+      </c>
+      <c r="E46" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="27" thickBot="1">
+      <c r="C47" s="84" t="s">
+        <v>494</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>489</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="15" thickBot="1">
+      <c r="C48" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>496</v>
+      </c>
+      <c r="E48" s="86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="C49" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" s="103" t="s">
+        <v>500</v>
+      </c>
+      <c r="F49" t="s">
+        <v>506</v>
+      </c>
+      <c r="G49" s="88">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15" thickBot="1">
+      <c r="C50" s="111"/>
+      <c r="D50" s="80" t="s">
+        <v>499</v>
+      </c>
+      <c r="E50" s="104"/>
+      <c r="F50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="74" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="27.75" thickBot="1">
+      <c r="C53" s="90" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15" thickBot="1">
+      <c r="C54" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D54" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="E54" s="72" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="27" thickBot="1">
+      <c r="C55" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15" thickBot="1">
+      <c r="C56" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15" thickBot="1">
+      <c r="C57" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15" thickBot="1">
+      <c r="C58" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15" thickBot="1">
+      <c r="C59" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="15" thickBot="1">
+      <c r="C60" s="83" t="s">
+        <v>519</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15" thickBot="1">
+      <c r="C61" s="83" t="s">
+        <v>521</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="74">
+        <v>3</v>
+      </c>
+      <c r="C63" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="D63" s="89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="C64" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="C65" s="90" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="27">
+      <c r="C66" s="90" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="C67" s="90" t="s">
+        <v>525</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="74">
+        <v>4</v>
+      </c>
+      <c r="C70" s="90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="C71" s="90" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>532</v>
+      </c>
+      <c r="D74" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="74">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>534</v>
+      </c>
+      <c r="D75" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="74">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="74">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="15" thickBot="1">
+      <c r="B78" s="74">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>555</v>
+      </c>
+      <c r="D78" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15" thickBot="1">
+      <c r="C79" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15" thickBot="1">
+      <c r="C80" s="110" t="s">
+        <v>547</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" ht="27.75" thickBot="1">
+      <c r="C81" s="112"/>
+      <c r="D81" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" ht="15" thickBot="1">
+      <c r="C82" s="111"/>
+      <c r="D82" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F82" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" ht="15" thickBot="1">
+      <c r="C83" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" ht="15" thickBot="1">
+      <c r="C84" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20">
+      <c r="B86" s="74">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>560</v>
+      </c>
+      <c r="D86" t="s">
+        <v>556</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="K86" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" ht="15" thickBot="1">
+      <c r="B87" s="74">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>579</v>
+      </c>
+      <c r="K87" s="26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" ht="15" thickBot="1">
+      <c r="C88" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D88" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="E88" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="K88" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" ht="15" thickBot="1">
+      <c r="C89" s="94" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="95" t="s">
+        <v>557</v>
+      </c>
+      <c r="E89" s="96" t="s">
+        <v>561</v>
+      </c>
+      <c r="F89" t="s">
+        <v>562</v>
+      </c>
+      <c r="G89" t="s">
+        <v>564</v>
+      </c>
+      <c r="K89" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="L89" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="M89" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="N89" s="97"/>
+      <c r="O89" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="P89" s="97" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q89" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="R89" s="97" t="s">
+        <v>598</v>
+      </c>
+      <c r="S89" s="98"/>
+      <c r="T89" s="98"/>
+    </row>
+    <row r="90" spans="2:20" ht="15" thickBot="1">
+      <c r="C90" s="94" t="s">
+        <v>558</v>
+      </c>
+      <c r="D90" s="95" t="s">
+        <v>559</v>
+      </c>
+      <c r="E90" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="F90" t="s">
+        <v>563</v>
+      </c>
+      <c r="J90" t="s">
+        <v>574</v>
+      </c>
+      <c r="K90" s="98">
+        <v>1</v>
+      </c>
+      <c r="L90" s="98">
+        <v>0</v>
+      </c>
+      <c r="M90" s="98">
+        <v>97</v>
+      </c>
+      <c r="N90" s="98"/>
+      <c r="O90" s="98">
+        <v>100</v>
+      </c>
+      <c r="P90" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="98" t="s">
+        <v>569</v>
+      </c>
+      <c r="R90" s="98" t="s">
+        <v>600</v>
+      </c>
+      <c r="S90" s="98"/>
+      <c r="T90" s="98"/>
+    </row>
+    <row r="91" spans="2:20" ht="15" thickBot="1">
+      <c r="C91" s="110" t="s">
+        <v>547</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s">
+        <v>575</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>97</v>
+      </c>
+      <c r="O91">
+        <v>100</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" ht="27.75" thickBot="1">
+      <c r="C92" s="112"/>
+      <c r="D92" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J92" t="s">
+        <v>576</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>97</v>
+      </c>
+      <c r="O92">
+        <v>100</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+      <c r="R92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" ht="15" thickBot="1">
+      <c r="C93" s="111"/>
+      <c r="D93" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" ht="15" thickBot="1">
+      <c r="C94" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" ht="15" thickBot="1">
+      <c r="C95" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="K95" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C91:C93"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8485,8 +11169,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9182,7 +11866,7 @@
   <dimension ref="A4:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10072,7 +12756,7 @@
   <dimension ref="B2:L68"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B64" sqref="B12:B64"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11671,7 +14355,7 @@
   <dimension ref="D4:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/doc/PLC设备接入分析/设备接入分析.xlsx
+++ b/doc/PLC设备接入分析/设备接入分析.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="633">
   <si>
     <t>ID:</t>
   </si>
@@ -4153,10 +4153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开始组网   63H   组网数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -4301,10 +4297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>停止组网  64H   不需要PDT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存储节点  66H   不需要PDT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4463,10 +4455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>集中器ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4483,10 +4471,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if  f1没有应答 完毕 ，则丢弃 新指令 ，上报设备忙即可。。。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>消息缓存：和设备交互，相同设备相同指令码的交互，需要排队阻塞，等待上一个指令的应答</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4606,14 +4590,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,通用接收通道，接收消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，下发请求，同时写入上面的消息缓存，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>key=initconfig+id+cmdCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4622,18 +4598,6 @@
   </si>
   <si>
     <t>XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送完毕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功1或发送失败2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iot_init_Configkey,field=initconfig+100+cmdCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4740,6 +4704,74 @@
   </si>
   <si>
     <t>删除所有节点  99H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot_init_Configkey,field=100+cmdCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时发起2调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始组网   62H   组网数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止组网  63H   不需要PDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貌似可以不需要，个人觉得不管组网成功或失败，都主动停止，直接执行后面的动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉也不需要做这个，这里只是方便查看而已</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前帧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把请求缓存，每收到一条应答，判断命令码和指令码，找到缓存的请求，判断总帧数，当前帧，累加到LIST里面去；完毕后清除缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同操作码和指令码对应的请求同一时刻只能有一条，新请求直接返回设备忙即可</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5096,7 +5128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -5334,12 +5366,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -5621,6 +5664,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5644,11 +5689,11 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5656,7 +5701,7 @@
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5672,7 +5717,7 @@
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5680,11 +5725,11 @@
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5696,7 +5741,7 @@
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5704,7 +5749,7 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5720,11 +5765,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5736,15 +5781,15 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5756,7 +5801,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10144,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10166,22 +10211,22 @@
     </row>
     <row r="11" spans="2:22" ht="20.25">
       <c r="L11" s="100" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="18">
       <c r="L12" s="35" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="M12" s="101" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N12" s="76"/>
       <c r="U12" s="35" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="V12" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="76" customFormat="1" ht="18">
@@ -10192,11 +10237,11 @@
         <v>468</v>
       </c>
       <c r="M13" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N13"/>
       <c r="V13" s="102" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -10204,7 +10249,7 @@
         <v>471</v>
       </c>
       <c r="M14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="2:22">
@@ -10212,7 +10257,7 @@
         <v>472</v>
       </c>
       <c r="O15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -10223,28 +10268,28 @@
         <v>470</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="M16" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="2:23">
       <c r="O17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="2:23">
       <c r="M20" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="2:23">
       <c r="L21" s="35" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="M21" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="2:23" s="77" customFormat="1" ht="18">
@@ -10262,25 +10307,25 @@
       </c>
       <c r="L22"/>
       <c r="M22" s="99" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N22" s="99" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P22" s="99" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="99" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="R22" s="99" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="S22" s="77" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="2:23">
@@ -10303,7 +10348,7 @@
         <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -10315,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="2:23">
@@ -10329,7 +10374,7 @@
         <v>476</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -10338,10 +10383,13 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>607</v>
+        <v>618</v>
+      </c>
+      <c r="U24" t="s">
+        <v>619</v>
       </c>
       <c r="W24" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="2:23">
@@ -10364,7 +10412,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>610</v>
+        <v>601</v>
+      </c>
+      <c r="V25" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="2:23">
@@ -10381,13 +10432,13 @@
         <v>1</v>
       </c>
       <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <v>2</v>
       </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
       <c r="T26" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="2:23">
@@ -10460,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" thickBot="1">
@@ -10479,16 +10530,16 @@
         <v>480</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>481</v>
       </c>
       <c r="F39" t="s">
+        <v>540</v>
+      </c>
+      <c r="P39" t="s">
         <v>541</v>
-      </c>
-      <c r="P39" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="27.75" thickBot="1">
@@ -10502,10 +10553,10 @@
         <v>481</v>
       </c>
       <c r="F40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="15" thickBot="1">
@@ -10519,10 +10570,10 @@
         <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="27" thickBot="1">
@@ -10530,7 +10581,7 @@
         <v>486</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="E42" s="86" t="s">
         <v>487</v>
@@ -10544,7 +10595,7 @@
         <v>488</v>
       </c>
       <c r="D43" s="85" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="E43" s="86" t="s">
         <v>490</v>
@@ -10634,15 +10685,15 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="27.75" thickBot="1">
       <c r="C53" s="90" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15" thickBot="1">
@@ -10712,7 +10763,7 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15" thickBot="1">
@@ -10762,10 +10813,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D63" s="89" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -10776,17 +10827,17 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:15">
       <c r="C65" s="90" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="27">
+    <row r="66" spans="2:15" ht="27">
       <c r="C66" s="90" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:15">
       <c r="C67" s="90" t="s">
         <v>525</v>
       </c>
@@ -10794,69 +10845,75 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:15">
       <c r="B70" s="74">
         <v>4</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
       <c r="C71" s="90" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:15">
       <c r="B74" s="74">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D74" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
       <c r="B75" s="74">
         <v>6</v>
       </c>
       <c r="C75" t="s">
+        <v>533</v>
+      </c>
+      <c r="D75" t="s">
         <v>534</v>
       </c>
-      <c r="D75" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="H75" t="s">
+        <v>623</v>
+      </c>
+      <c r="O75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
       <c r="B76" s="74">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
       <c r="B77" s="74">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="15" thickBot="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="15" thickBot="1">
       <c r="B78" s="74">
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D78" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="15" thickBot="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="15" thickBot="1">
       <c r="C79" s="44" t="s">
         <v>477</v>
       </c>
@@ -10867,89 +10924,92 @@
         <v>479</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="15" thickBot="1">
+    <row r="80" spans="2:15" ht="15" thickBot="1">
       <c r="C80" s="110" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="2:20" ht="27.75" thickBot="1">
+    <row r="81" spans="2:21" ht="27.75" thickBot="1">
       <c r="C81" s="112"/>
       <c r="D81" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="2:20" ht="15" thickBot="1">
+    <row r="82" spans="2:21" ht="15" thickBot="1">
       <c r="C82" s="111"/>
       <c r="D82" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="F82" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" ht="15" thickBot="1">
+      <c r="C83" s="93" t="s">
         <v>550</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="D83" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" ht="15" thickBot="1">
+      <c r="C84" s="83" t="s">
         <v>551</v>
-      </c>
-      <c r="F82" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" ht="15" thickBot="1">
-      <c r="C83" s="93" t="s">
-        <v>552</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" ht="15" thickBot="1">
-      <c r="C84" s="83" t="s">
-        <v>553</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>331</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21">
       <c r="B86" s="74">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D86" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" ht="15" thickBot="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" ht="15" thickBot="1">
       <c r="B87" s="74">
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>579</v>
+        <v>575</v>
+      </c>
+      <c r="F87" t="s">
+        <v>625</v>
       </c>
       <c r="K87" s="26" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" ht="15" thickBot="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" ht="15" thickBot="1">
       <c r="C88" s="44" t="s">
         <v>477</v>
       </c>
@@ -10960,65 +11020,70 @@
         <v>479</v>
       </c>
       <c r="K88" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20" ht="15" thickBot="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" ht="15" thickBot="1">
       <c r="C89" s="94" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D89" s="95" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E89" s="96" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F89" t="s">
+        <v>560</v>
+      </c>
+      <c r="G89" t="s">
         <v>562</v>
       </c>
-      <c r="G89" t="s">
+      <c r="K89" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="L89" s="97" t="s">
+        <v>629</v>
+      </c>
+      <c r="M89" s="97" t="s">
         <v>564</v>
-      </c>
-      <c r="K89" s="97" t="s">
-        <v>572</v>
-      </c>
-      <c r="L89" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="M89" s="97" t="s">
-        <v>567</v>
       </c>
       <c r="N89" s="97"/>
       <c r="O89" s="97" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P89" s="97" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Q89" s="97" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="R89" s="97" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S89" s="98"/>
-      <c r="T89" s="98"/>
-    </row>
-    <row r="90" spans="2:20" ht="15" thickBot="1">
+      <c r="T89" s="98" t="s">
+        <v>626</v>
+      </c>
+      <c r="U89" s="113" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" ht="15" thickBot="1">
       <c r="C90" s="94" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D90" s="95" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E90" s="96" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F90" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J90" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K90" s="98">
         <v>1</v>
@@ -11037,32 +11102,37 @@
         <v>2</v>
       </c>
       <c r="Q90" s="98" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="R90" s="98" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="S90" s="98"/>
-      <c r="T90" s="98"/>
-    </row>
-    <row r="91" spans="2:20" ht="15" thickBot="1">
+      <c r="T90" s="98" t="s">
+        <v>627</v>
+      </c>
+      <c r="U90" s="114" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" ht="15" thickBot="1">
       <c r="C91" s="110" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
       <c r="J91" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M91">
         <v>97</v>
@@ -11074,25 +11144,25 @@
         <v>1</v>
       </c>
       <c r="R91" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" ht="27.75" thickBot="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" ht="27.75" thickBot="1">
       <c r="C92" s="112"/>
       <c r="D92" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J92" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="M92">
         <v>97</v>
@@ -11104,51 +11174,48 @@
         <v>2</v>
       </c>
       <c r="R92" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" ht="15" thickBot="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" ht="15" thickBot="1">
       <c r="C93" s="111"/>
       <c r="D93" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" ht="15" thickBot="1">
+      <c r="C94" s="93" t="s">
         <v>550</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="D94" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" ht="15" thickBot="1">
+      <c r="C95" s="83" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" ht="15" thickBot="1">
-      <c r="C94" s="93" t="s">
-        <v>552</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" ht="15" thickBot="1">
-      <c r="C95" s="83" t="s">
-        <v>553</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>331</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="K95" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -11508,7 +11575,332 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId3" name="Control 14">
+        <control shapeId="2049" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId13" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId18" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId18" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId20" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId20" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId22" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId22" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId24" name="Control 14">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -11528,332 +11920,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId3" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId5" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId5" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId7" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId7" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId9" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId9" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId11" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId11" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId15" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId15" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId16" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId16" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId17" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId17" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId18" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId18" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId20" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId20" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId22" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId22" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId24" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId24" name="Control 1"/>
+        <control shapeId="2062" r:id="rId24" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12158,7 +12225,282 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="Control 1">
+        <control shapeId="4108" r:id="rId3" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4108" r:id="rId3" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4107" r:id="rId5" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4107" r:id="rId5" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4106" r:id="rId6" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4106" r:id="rId6" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId8" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4105" r:id="rId8" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId9" name="Control 8">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId9" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId11" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId12" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId12" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId13" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId13" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId14" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId14" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId15" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId15" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId16" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId17" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -12178,282 +12520,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId6" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId7" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId7" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId8" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4101" r:id="rId8" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId9" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4102" r:id="rId9" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId10" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4103" r:id="rId10" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId11" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4104" r:id="rId11" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4105" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4106" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4106" r:id="rId14" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4107" r:id="rId16" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4107" r:id="rId16" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4108" r:id="rId17" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4108" r:id="rId17" name="Control 12"/>
+        <control shapeId="4097" r:id="rId17" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12573,7 +12640,82 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="13313" r:id="rId3" name="Control 1">
+        <control shapeId="13316" r:id="rId3" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13316" r:id="rId3" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId5" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId5" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId7" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId7" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13313" r:id="rId8" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -12593,82 +12735,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="13313" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13314" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13314" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13315" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13315" r:id="rId6" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13316" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13316" r:id="rId8" name="Control 4"/>
+        <control shapeId="13313" r:id="rId8" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
